--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200214.xlsx
@@ -10303,10 +10303,10 @@
     <t>地区待确认</t>
   </si>
   <si>
-    <t>2月13日0时至12时，云南省报告新型冠状病毒肺炎新增确诊病例1例（昆明市）。2月13日12时至24时，云南省报告新型冠状病毒肺炎新增确诊病例6例（昭通市5例、红河州1例）。</t>
-  </si>
-  <si>
-    <t>http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158158031287675538;http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158164573472656336</t>
+    <t>2月14日0时至12时，云南省报告新型冠状病毒肺炎新增确诊病例为零。2月14日12时至24时，云南省报告新型冠状病毒肺炎新增确诊病例6例（昭通市）。</t>
+  </si>
+  <si>
+    <t>http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158166866140735865;http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158173863933096852</t>
   </si>
 </sst>
 </file>
@@ -10756,8 +10756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10960,7 +10960,7 @@
         <v>3297</v>
       </c>
       <c r="T2" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>3299</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="W2" s="14"/>
       <c r="Z2" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA2" s="13" t="s">
         <v>3293</v>
@@ -11017,7 +11017,7 @@
         <v>3297</v>
       </c>
       <c r="T3" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>3299</v>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="W3" s="14"/>
       <c r="Z3" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>3293</v>
@@ -11074,7 +11074,7 @@
         <v>3297</v>
       </c>
       <c r="T4" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>3299</v>
@@ -11084,7 +11084,7 @@
       </c>
       <c r="W4" s="14"/>
       <c r="Z4" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>3293</v>
@@ -11128,7 +11128,7 @@
         <v>3297</v>
       </c>
       <c r="T5" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>3299</v>
@@ -11137,7 +11137,7 @@
         <v>3300</v>
       </c>
       <c r="Z5" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>3293</v>
@@ -11184,7 +11184,7 @@
         <v>3297</v>
       </c>
       <c r="T6" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>3299</v>
@@ -11193,7 +11193,7 @@
         <v>3300</v>
       </c>
       <c r="Z6" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>3293</v>
@@ -11240,7 +11240,7 @@
         <v>3297</v>
       </c>
       <c r="T7" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U7" s="13" t="s">
         <v>3299</v>
@@ -11249,7 +11249,7 @@
         <v>3300</v>
       </c>
       <c r="Z7" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>3293</v>
@@ -11296,7 +11296,7 @@
         <v>3297</v>
       </c>
       <c r="T8" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>3299</v>
@@ -11305,7 +11305,7 @@
         <v>3300</v>
       </c>
       <c r="Z8" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA8" s="13" t="s">
         <v>3293</v>
@@ -11346,7 +11346,7 @@
         <v>3297</v>
       </c>
       <c r="T9" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U9" s="13" t="s">
         <v>3299</v>
@@ -11355,7 +11355,7 @@
         <v>3300</v>
       </c>
       <c r="Z9" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA9" s="13" t="s">
         <v>3293</v>
@@ -11399,7 +11399,7 @@
         <v>3297</v>
       </c>
       <c r="T10" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>3299</v>
@@ -11408,7 +11408,7 @@
         <v>3300</v>
       </c>
       <c r="Z10" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>3293</v>
@@ -11452,7 +11452,7 @@
         <v>3297</v>
       </c>
       <c r="T11" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U11" s="13" t="s">
         <v>3299</v>
@@ -11461,7 +11461,7 @@
         <v>3300</v>
       </c>
       <c r="Z11" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>3293</v>
@@ -11505,7 +11505,7 @@
         <v>3297</v>
       </c>
       <c r="T12" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U12" s="13" t="s">
         <v>3299</v>
@@ -11514,7 +11514,7 @@
         <v>3300</v>
       </c>
       <c r="Z12" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>3293</v>
@@ -11558,7 +11558,7 @@
         <v>3297</v>
       </c>
       <c r="T13" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U13" s="13" t="s">
         <v>3299</v>
@@ -11567,7 +11567,7 @@
         <v>3300</v>
       </c>
       <c r="Z13" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>3293</v>
@@ -11608,7 +11608,7 @@
         <v>3297</v>
       </c>
       <c r="T14" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>3299</v>
@@ -11617,7 +11617,7 @@
         <v>3300</v>
       </c>
       <c r="Z14" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA14" s="13" t="s">
         <v>3293</v>
@@ -11658,7 +11658,7 @@
         <v>3297</v>
       </c>
       <c r="T15" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>3299</v>
@@ -11667,7 +11667,7 @@
         <v>3300</v>
       </c>
       <c r="Z15" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>3293</v>
@@ -11708,7 +11708,7 @@
         <v>3297</v>
       </c>
       <c r="T16" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>3299</v>
@@ -11717,7 +11717,7 @@
         <v>3300</v>
       </c>
       <c r="Z16" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>3293</v>
@@ -11755,7 +11755,7 @@
         <v>3297</v>
       </c>
       <c r="T17" s="14">
-        <v>43875.4375</v>
+        <v>43876.498611111114</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>3299</v>
@@ -11764,7 +11764,7 @@
         <v>3300</v>
       </c>
       <c r="Z17" s="14">
-        <v>43875.461805555555</v>
+        <v>43876.522222222222</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>3293</v>
